--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag2-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag2-Notch1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.97098566666667</v>
+        <v>20.002957</v>
       </c>
       <c r="H2">
-        <v>38.91295700000001</v>
+        <v>60.008871</v>
       </c>
       <c r="I2">
-        <v>0.7291028508134716</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="J2">
-        <v>0.7291028508134717</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N2">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O2">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P2">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q2">
-        <v>617.1460514315256</v>
+        <v>1409.466678842612</v>
       </c>
       <c r="R2">
-        <v>5554.314462883731</v>
+        <v>12685.20010958351</v>
       </c>
       <c r="S2">
-        <v>0.328233684447866</v>
+        <v>0.417964061172473</v>
       </c>
       <c r="T2">
-        <v>0.328233684447866</v>
+        <v>0.417964061172473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.97098566666667</v>
+        <v>20.002957</v>
       </c>
       <c r="H3">
-        <v>38.91295700000001</v>
+        <v>60.008871</v>
       </c>
       <c r="I3">
-        <v>0.7291028508134716</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="J3">
-        <v>0.7291028508134717</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.489171</v>
       </c>
       <c r="O3">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P3">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q3">
-        <v>127.5012047876275</v>
+        <v>196.6235398262156</v>
       </c>
       <c r="R3">
-        <v>1147.510843088647</v>
+        <v>1769.611858435941</v>
       </c>
       <c r="S3">
-        <v>0.06781245723262685</v>
+        <v>0.05830685780763278</v>
       </c>
       <c r="T3">
-        <v>0.06781245723262684</v>
+        <v>0.05830685780763278</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.97098566666667</v>
+        <v>20.002957</v>
       </c>
       <c r="H4">
-        <v>38.91295700000001</v>
+        <v>60.008871</v>
       </c>
       <c r="I4">
-        <v>0.7291028508134716</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="J4">
-        <v>0.7291028508134717</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N4">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q4">
-        <v>484.3939192553325</v>
+        <v>850.2356487575859</v>
       </c>
       <c r="R4">
-        <v>4359.545273297992</v>
+        <v>7652.120838818273</v>
       </c>
       <c r="S4">
-        <v>0.2576284827108885</v>
+        <v>0.2521293692449292</v>
       </c>
       <c r="T4">
-        <v>0.2576284827108885</v>
+        <v>0.2521293692449292</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.97098566666667</v>
+        <v>20.002957</v>
       </c>
       <c r="H5">
-        <v>38.91295700000001</v>
+        <v>60.008871</v>
       </c>
       <c r="I5">
-        <v>0.7291028508134716</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="J5">
-        <v>0.7291028508134717</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N5">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q5">
-        <v>141.8203990281494</v>
+        <v>214.7625346134753</v>
       </c>
       <c r="R5">
-        <v>1276.383591253344</v>
+        <v>1932.862811521278</v>
       </c>
       <c r="S5">
-        <v>0.07542822642209018</v>
+        <v>0.0636858057747425</v>
       </c>
       <c r="T5">
-        <v>0.07542822642209017</v>
+        <v>0.0636858057747425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.14344</v>
       </c>
       <c r="I6">
-        <v>0.05889789011308234</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="J6">
-        <v>0.05889789011308236</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N6">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O6">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P6">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q6">
-        <v>49.85387216684443</v>
+        <v>73.83198289034667</v>
       </c>
       <c r="R6">
-        <v>448.6848495016</v>
+        <v>664.48784601312</v>
       </c>
       <c r="S6">
-        <v>0.02651515003192381</v>
+        <v>0.02189417875320465</v>
       </c>
       <c r="T6">
-        <v>0.02651515003192381</v>
+        <v>0.02189417875320465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.14344</v>
       </c>
       <c r="I7">
-        <v>0.05889789011308234</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="J7">
-        <v>0.05889789011308236</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.489171</v>
       </c>
       <c r="O7">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P7">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q7">
         <v>10.29971552091556</v>
@@ -883,10 +883,10 @@
         <v>92.69743968824</v>
       </c>
       <c r="S7">
-        <v>0.005477979752690819</v>
+        <v>0.003054283575953715</v>
       </c>
       <c r="T7">
-        <v>0.005477979752690819</v>
+        <v>0.003054283575953715</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.14344</v>
       </c>
       <c r="I8">
-        <v>0.05889789011308234</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="J8">
-        <v>0.05889789011308236</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N8">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q8">
-        <v>39.12997980451555</v>
+        <v>44.53782754437333</v>
       </c>
       <c r="R8">
-        <v>352.16981824064</v>
+        <v>400.84044789936</v>
       </c>
       <c r="S8">
-        <v>0.02081156869401406</v>
+        <v>0.0132072730456682</v>
       </c>
       <c r="T8">
-        <v>0.02081156869401406</v>
+        <v>0.0132072730456682</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.14344</v>
       </c>
       <c r="I9">
-        <v>0.05889789011308234</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="J9">
-        <v>0.05889789011308236</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N9">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q9">
-        <v>11.45643892138667</v>
+        <v>11.24988906732444</v>
       </c>
       <c r="R9">
-        <v>103.10795029248</v>
+        <v>101.24900160592</v>
       </c>
       <c r="S9">
-        <v>0.006093191634453662</v>
+        <v>0.003336048586959028</v>
       </c>
       <c r="T9">
-        <v>0.006093191634453662</v>
+        <v>0.003336048586959028</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.458986333333333</v>
+        <v>2.298356333333333</v>
       </c>
       <c r="H10">
-        <v>7.376958999999999</v>
+        <v>6.895068999999999</v>
       </c>
       <c r="I10">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="J10">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N10">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O10">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P10">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q10">
-        <v>116.9960205908344</v>
+        <v>161.9488892537346</v>
       </c>
       <c r="R10">
-        <v>1052.96418531751</v>
+        <v>1457.540003283612</v>
       </c>
       <c r="S10">
-        <v>0.06222519744749402</v>
+        <v>0.04802441694502838</v>
       </c>
       <c r="T10">
-        <v>0.06222519744749403</v>
+        <v>0.04802441694502838</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.458986333333333</v>
+        <v>2.298356333333333</v>
       </c>
       <c r="H11">
-        <v>7.376958999999999</v>
+        <v>6.895068999999999</v>
       </c>
       <c r="I11">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="J11">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.489171</v>
       </c>
       <c r="O11">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P11">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q11">
-        <v>24.17115615677655</v>
+        <v>22.59220764419988</v>
       </c>
       <c r="R11">
-        <v>217.540405410989</v>
+        <v>203.329868797799</v>
       </c>
       <c r="S11">
-        <v>0.01285560788131166</v>
+        <v>0.006699506273944342</v>
       </c>
       <c r="T11">
-        <v>0.01285560788131166</v>
+        <v>0.006699506273944342</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.458986333333333</v>
+        <v>2.298356333333333</v>
       </c>
       <c r="H12">
-        <v>7.376958999999999</v>
+        <v>6.895068999999999</v>
       </c>
       <c r="I12">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="J12">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N12">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q12">
-        <v>91.82941512761154</v>
+        <v>97.69278052978731</v>
       </c>
       <c r="R12">
-        <v>826.4647361485039</v>
+        <v>879.2350247680859</v>
       </c>
       <c r="S12">
-        <v>0.04884015250217127</v>
+        <v>0.02896987343538366</v>
       </c>
       <c r="T12">
-        <v>0.04884015250217127</v>
+        <v>0.02896987343538366</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.458986333333333</v>
+        <v>2.298356333333333</v>
       </c>
       <c r="H13">
-        <v>7.376958999999999</v>
+        <v>6.895068999999999</v>
       </c>
       <c r="I13">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="J13">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N13">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O13">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P13">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q13">
-        <v>26.88573034925866</v>
+        <v>24.67639317484911</v>
       </c>
       <c r="R13">
-        <v>241.9715731433279</v>
+        <v>222.087538573642</v>
       </c>
       <c r="S13">
-        <v>0.01429937420994441</v>
+        <v>0.007317551852249445</v>
       </c>
       <c r="T13">
-        <v>0.01429937420994441</v>
+        <v>0.007317551852249445</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.312552</v>
+        <v>1.904387</v>
       </c>
       <c r="H14">
-        <v>3.937656</v>
+        <v>5.713160999999999</v>
       </c>
       <c r="I14">
-        <v>0.07377892703252469</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="J14">
-        <v>0.0737789270325247</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N14">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O14">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P14">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q14">
-        <v>62.44986348109332</v>
+        <v>134.188661212492</v>
       </c>
       <c r="R14">
-        <v>562.04877132984</v>
+        <v>1207.697950912428</v>
       </c>
       <c r="S14">
-        <v>0.03321442102095316</v>
+        <v>0.03979238292438775</v>
       </c>
       <c r="T14">
-        <v>0.03321442102095316</v>
+        <v>0.03979238292438775</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.312552</v>
+        <v>1.904387</v>
       </c>
       <c r="H15">
-        <v>3.937656</v>
+        <v>5.713160999999999</v>
       </c>
       <c r="I15">
-        <v>0.07377892703252469</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="J15">
-        <v>0.0737789270325247</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.489171</v>
       </c>
       <c r="O15">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P15">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q15">
-        <v>12.90202345813067</v>
+        <v>18.71959796439233</v>
       </c>
       <c r="R15">
-        <v>116.118211123176</v>
+        <v>168.476381679531</v>
       </c>
       <c r="S15">
-        <v>0.006862036444488052</v>
+        <v>0.005551120367838833</v>
       </c>
       <c r="T15">
-        <v>0.006862036444488052</v>
+        <v>0.005551120367838833</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.312552</v>
+        <v>1.904387</v>
       </c>
       <c r="H16">
-        <v>3.937656</v>
+        <v>5.713160999999999</v>
       </c>
       <c r="I16">
-        <v>0.07377892703252469</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="J16">
-        <v>0.0737789270325247</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N16">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O16">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P16">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q16">
-        <v>49.01649140977066</v>
+        <v>80.94691781972598</v>
       </c>
       <c r="R16">
-        <v>441.148422687936</v>
+        <v>728.5222603775339</v>
       </c>
       <c r="S16">
-        <v>0.02606978289307148</v>
+        <v>0.02400404565726172</v>
       </c>
       <c r="T16">
-        <v>0.02606978289307148</v>
+        <v>0.02400404565726172</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.312552</v>
+        <v>1.904387</v>
       </c>
       <c r="H17">
-        <v>3.937656</v>
+        <v>5.713160999999999</v>
       </c>
       <c r="I17">
-        <v>0.07377892703252469</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="J17">
-        <v>0.0737789270325247</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N17">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O17">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P17">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q17">
-        <v>14.351002550528</v>
+        <v>20.44652593138866</v>
       </c>
       <c r="R17">
-        <v>129.159022954752</v>
+        <v>184.018733382498</v>
       </c>
       <c r="S17">
-        <v>0.007632686674011997</v>
+        <v>0.006063224582342728</v>
       </c>
       <c r="T17">
-        <v>0.007632686674011996</v>
+        <v>0.006063224582342728</v>
       </c>
     </row>
   </sheetData>
